--- a/data/exp_industry_state_year.xlsx
+++ b/data/exp_industry_state_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merisaindajang/Desktop/GitHub/FIT3179-HomeworkWk10/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B5C0FE-9C77-914B-AF61-C2F73EA9CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C72CE7-DE7D-1844-81D3-F4BC450F4BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{AEC3FC2C-8F9A-E44B-A051-2809126AF799}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{AEC3FC2C-8F9A-E44B-A051-2809126AF799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="17">
   <si>
     <t>Industry</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Mining</t>
-  </si>
-  <si>
-    <t>np</t>
   </si>
   <si>
     <t>Manufacturing</t>
@@ -471,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F172D49F-136E-2848-BC3A-29B235104DF0}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>1197</v>
@@ -573,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>859</v>
@@ -660,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>108</v>
@@ -747,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>2149</v>
@@ -776,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>29877</v>
@@ -863,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>1026</v>
@@ -889,7 +886,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -918,7 +915,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
@@ -947,10 +944,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>11870</v>
@@ -976,10 +973,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
         <v>7347</v>
@@ -1005,7 +1002,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -1063,10 +1060,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
         <v>1000</v>
@@ -1092,7 +1089,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1121,7 +1118,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -1150,10 +1147,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3">
         <v>83</v>
@@ -1179,10 +1176,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>150</v>
@@ -1208,7 +1205,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -1237,7 +1234,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -1266,10 +1263,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
@@ -1353,10 +1350,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3">
         <v>6615</v>
@@ -1382,10 +1379,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="3">
         <v>3790</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
@@ -1440,7 +1437,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -1469,10 +1466,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
         <v>224</v>
@@ -1498,7 +1495,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
@@ -1527,7 +1524,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -1556,10 +1553,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3">
         <v>388</v>
@@ -1585,10 +1582,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3">
         <v>635</v>
@@ -1614,7 +1611,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -1672,10 +1669,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
@@ -1701,7 +1698,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -1759,10 +1756,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="3">
         <v>645</v>
@@ -1788,10 +1785,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="3">
         <v>220</v>
@@ -1817,7 +1814,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
@@ -1846,7 +1843,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
@@ -1904,7 +1901,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>2</v>
@@ -1933,10 +1930,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C51" s="3">
         <v>1015</v>
@@ -1962,10 +1959,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="3">
         <v>1934</v>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>3</v>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -2049,13 +2046,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>8</v>
+      <c r="C55" s="4">
+        <v>12</v>
       </c>
       <c r="D55" s="3">
         <v>16</v>
@@ -2069,11 +2066,11 @@
       <c r="G55" s="3">
         <v>31</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>8</v>
+      <c r="H55" s="4">
+        <v>15</v>
+      </c>
+      <c r="I55" s="4">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
